--- a/IMA/results_RQ3/results_RQ3.xlsx
+++ b/IMA/results_RQ3/results_RQ3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_ASE\IMA\results_RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC95F99A-5C1D-426F-94B1-D4D244BB6C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B974A97-C872-4D8C-8D2C-DFE137488F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2900,7 +2900,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="V28" sqref="V28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/IMA/results_RQ3/results_RQ3.xlsx
+++ b/IMA/results_RQ3/results_RQ3.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\modelingOperationRec_ASE\IMA\results_RQ3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B974A97-C872-4D8C-8D2C-DFE137488F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE3E46E-586D-45C5-A89F-A36BDBC7EF44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="18">
   <si>
     <t>dataset</t>
   </si>
@@ -67,6 +68,18 @@
   </si>
   <si>
     <t>Mixed 0.8</t>
+  </si>
+  <si>
+    <t>𝐷𝑚02</t>
+  </si>
+  <si>
+    <t>𝐷𝑚05</t>
+  </si>
+  <si>
+    <t>𝐷𝑚08</t>
+  </si>
+  <si>
+    <t>GPT-4</t>
   </si>
 </sst>
 </file>
@@ -1495,6 +1508,1376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$2:$E$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.117569557467199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.987878787878699</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A1E-461E-835F-CE50A25ABFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$4:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.2234806966264</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.1642366348248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1A1E-461E-835F-CE50A25ABFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.660281747238201</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.337693259121799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1A1E-461E-835F-CE50A25ABFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$8:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40.030303030303003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.913192071086797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1A1E-461E-835F-CE50A25ABFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$10:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.281746031746</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24.1981592507539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1A1E-461E-835F-CE50A25ABFAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1198011807"/>
+        <c:axId val="1098505615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198011807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098505615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098505615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198011807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29786356549292231"/>
+          <c:y val="6.804562051102836E-2"/>
+          <c:w val="0.27010686829511821"/>
+          <c:h val="0.26142533154229514"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Manual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="55000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$3:$E$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.968614718614702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>66.519645060821503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48FF-4661-B83D-9C8E1378D10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚02</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$5:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.382284382284297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.590171079873599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-48FF-4661-B83D-9C8E1378D10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚05</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="98500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$7:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.9347319347319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.2151326933935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-48FF-4661-B83D-9C8E1378D10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>𝐷𝑚08</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="30000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$9:$E$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.015151515151501</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.868131868131798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-48FF-4661-B83D-9C8E1378D10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$B$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPT-4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:tint val="88500"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Sheet1 (2)'!$C$1:$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>F1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sheet1 (2)'!$C$11:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.045454545454497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42.920634920634903</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-48FF-4661-B83D-9C8E1378D10A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:axId val="1198011807"/>
+        <c:axId val="1098505615"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1198011807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1098505615"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1098505615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1198011807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.27570795103603501"/>
+          <c:y val="6.7984485922546592E-2"/>
+          <c:w val="0.28195781082920185"/>
+          <c:h val="0.25196631061785801"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
   <a:schemeClr val="dk1"/>
@@ -1549,6 +2932,60 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="20">
+  <a:schemeClr val="dk1"/>
+  <cs:variation>
+    <a:tint val="88500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="55000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="75000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="98500"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:tint val="80000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2053,6 +3490,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2612,6 +5055,87 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417E092-BCD1-43D1-8DD1-E87221F1F438}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377190</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101917</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D96FC78C-FA27-42D0-AE26-6ABB3662C55E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306705</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>97155</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E896C2-5472-44C4-B6AF-7FD8C7132BDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2899,8 +5423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,4 +5699,286 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3ADEAC9-6465-4B92-99E1-48C53161746C}">
+  <dimension ref="A1:P20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>70</v>
+      </c>
+      <c r="D2">
+        <v>47.117569557467199</v>
+      </c>
+      <c r="E2">
+        <v>49.987878787878699</v>
+      </c>
+      <c r="F2">
+        <v>0.116762018203735</v>
+      </c>
+      <c r="G2">
+        <v>6.0312824726104699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>62.968614718614702</v>
+      </c>
+      <c r="E3">
+        <v>66.519645060821503</v>
+      </c>
+      <c r="F3">
+        <v>0.108446741104125</v>
+      </c>
+      <c r="G3">
+        <v>6.7967080116271896</v>
+      </c>
+      <c r="P3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>46</v>
+      </c>
+      <c r="D4">
+        <v>25.2234806966264</v>
+      </c>
+      <c r="E4">
+        <v>30.1642366348248</v>
+      </c>
+      <c r="F4">
+        <v>5.0188350677490202E-2</v>
+      </c>
+      <c r="G4">
+        <v>1.9120311260223299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>60.382284382284297</v>
+      </c>
+      <c r="E5">
+        <v>56.590171079873599</v>
+      </c>
+      <c r="F5">
+        <v>4.7763299942016599E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.94040384292602</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>25.660281747238201</v>
+      </c>
+      <c r="E6">
+        <v>29.337693259121799</v>
+      </c>
+      <c r="F6">
+        <v>0.13566160202026301</v>
+      </c>
+      <c r="G6">
+        <v>5.2080189228057803</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>48</v>
+      </c>
+      <c r="D7">
+        <v>48.9347319347319</v>
+      </c>
+      <c r="E7">
+        <v>47.2151326933935</v>
+      </c>
+      <c r="F7">
+        <v>0.102812576293945</v>
+      </c>
+      <c r="G7">
+        <v>5.0108985900878897</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>40.030303030303003</v>
+      </c>
+      <c r="E8">
+        <v>36.913192071086797</v>
+      </c>
+      <c r="F8">
+        <v>6.7553806304931602E-2</v>
+      </c>
+      <c r="G8">
+        <v>2.4802765846252401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>47.015151515151501</v>
+      </c>
+      <c r="E9">
+        <v>39.868131868131798</v>
+      </c>
+      <c r="F9">
+        <v>6.2354135513305597E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.42972269058227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>22.281746031746</v>
+      </c>
+      <c r="E10">
+        <v>24.1981592507539</v>
+      </c>
+      <c r="F10">
+        <v>9.4164991378784105E-2</v>
+      </c>
+      <c r="G10">
+        <v>4.0042902469635004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11">
+        <v>50.045454545454497</v>
+      </c>
+      <c r="E11">
+        <v>42.920634920634903</v>
+      </c>
+      <c r="F11">
+        <v>9.0987491607666005E-2</v>
+      </c>
+      <c r="G11">
+        <v>4.11189060211181</v>
+      </c>
+    </row>
+    <row r="20" spans="16:16" x14ac:dyDescent="0.3">
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>